--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_10.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135780.9159023403</v>
+        <v>135780.9159023402</v>
       </c>
     </row>
     <row r="7">
@@ -26320,16 +26322,16 @@
         <v>45372.49010591685</v>
       </c>
       <c r="E2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="F2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="G2" t="n">
         <v>45372.49010591686</v>
       </c>
       <c r="H2" t="n">
-        <v>45372.49010591687</v>
+        <v>45372.49010591686</v>
       </c>
       <c r="I2" t="n">
         <v>45372.49010591686</v>
@@ -26341,19 +26343,19 @@
         <v>45372.49010591686</v>
       </c>
       <c r="L2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="M2" t="n">
         <v>45372.49010591686</v>
       </c>
       <c r="N2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="O2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="P2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
     </row>
     <row r="3">
@@ -26522,46 +26524,46 @@
         <v>-6404.105936449894</v>
       </c>
       <c r="C6" t="n">
-        <v>-6404.105936449891</v>
+        <v>-6404.105936449894</v>
       </c>
       <c r="D6" t="n">
         <v>-6404.105936449894</v>
       </c>
       <c r="E6" t="n">
+        <v>27223.4940635501</v>
+      </c>
+      <c r="F6" t="n">
+        <v>27223.4940635501</v>
+      </c>
+      <c r="G6" t="n">
+        <v>27223.49406355011</v>
+      </c>
+      <c r="H6" t="n">
+        <v>27223.49406355011</v>
+      </c>
+      <c r="I6" t="n">
+        <v>27223.49406355011</v>
+      </c>
+      <c r="J6" t="n">
         <v>27223.49406355012</v>
-      </c>
-      <c r="F6" t="n">
-        <v>27223.49406355011</v>
-      </c>
-      <c r="G6" t="n">
-        <v>27223.49406355012</v>
-      </c>
-      <c r="H6" t="n">
-        <v>27223.49406355013</v>
-      </c>
-      <c r="I6" t="n">
-        <v>27223.49406355012</v>
-      </c>
-      <c r="J6" t="n">
-        <v>27223.49406355011</v>
       </c>
       <c r="K6" t="n">
         <v>27223.49406355012</v>
       </c>
       <c r="L6" t="n">
+        <v>27223.4940635501</v>
+      </c>
+      <c r="M6" t="n">
         <v>27223.49406355011</v>
       </c>
-      <c r="M6" t="n">
-        <v>27223.49406355012</v>
-      </c>
       <c r="N6" t="n">
-        <v>27223.49406355011</v>
+        <v>27223.4940635501</v>
       </c>
       <c r="O6" t="n">
-        <v>27223.49406355012</v>
+        <v>27223.4940635501</v>
       </c>
       <c r="P6" t="n">
-        <v>27223.49406355011</v>
+        <v>27223.4940635501</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_10.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>135780.9159023402</v>
+        <v>13180.89532373237</v>
       </c>
     </row>
     <row r="7">
@@ -26316,43 +26316,43 @@
         <v>45372.49010591685</v>
       </c>
       <c r="C2" t="n">
-        <v>45372.49010591685</v>
+        <v>45372.49010591686</v>
       </c>
       <c r="D2" t="n">
-        <v>45372.49010591685</v>
+        <v>45372.49010591686</v>
       </c>
       <c r="E2" t="n">
-        <v>45372.49010591685</v>
+        <v>45372.49010591686</v>
       </c>
       <c r="F2" t="n">
-        <v>45372.49010591685</v>
+        <v>45372.49010591686</v>
       </c>
       <c r="G2" t="n">
         <v>45372.49010591686</v>
       </c>
       <c r="H2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="I2" t="n">
-        <v>45372.49010591686</v>
+        <v>45372.49010591685</v>
       </c>
       <c r="J2" t="n">
         <v>45372.49010591686</v>
       </c>
       <c r="K2" t="n">
+        <v>45372.49010591685</v>
+      </c>
+      <c r="L2" t="n">
         <v>45372.49010591686</v>
-      </c>
-      <c r="L2" t="n">
-        <v>45372.49010591685</v>
       </c>
       <c r="M2" t="n">
         <v>45372.49010591686</v>
       </c>
       <c r="N2" t="n">
-        <v>45372.49010591685</v>
+        <v>45372.49010591686</v>
       </c>
       <c r="O2" t="n">
-        <v>45372.49010591685</v>
+        <v>45372.49010591686</v>
       </c>
       <c r="P2" t="n">
         <v>45372.49010591685</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-6404.105936449894</v>
+        <v>-21057.45843821275</v>
       </c>
       <c r="C6" t="n">
-        <v>-6404.105936449894</v>
+        <v>-21057.45843821274</v>
       </c>
       <c r="D6" t="n">
-        <v>-6404.105936449894</v>
+        <v>-21057.45843821274</v>
       </c>
       <c r="E6" t="n">
-        <v>27223.4940635501</v>
+        <v>12570.14156178726</v>
       </c>
       <c r="F6" t="n">
-        <v>27223.4940635501</v>
+        <v>12570.14156178726</v>
       </c>
       <c r="G6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178725</v>
       </c>
       <c r="H6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178725</v>
       </c>
       <c r="I6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178724</v>
       </c>
       <c r="J6" t="n">
-        <v>27223.49406355012</v>
+        <v>12570.14156178726</v>
       </c>
       <c r="K6" t="n">
-        <v>27223.49406355012</v>
+        <v>12570.14156178724</v>
       </c>
       <c r="L6" t="n">
-        <v>27223.4940635501</v>
+        <v>12570.14156178726</v>
       </c>
       <c r="M6" t="n">
-        <v>27223.49406355011</v>
+        <v>12570.14156178725</v>
       </c>
       <c r="N6" t="n">
-        <v>27223.4940635501</v>
+        <v>12570.14156178726</v>
       </c>
       <c r="O6" t="n">
-        <v>27223.4940635501</v>
+        <v>12570.14156178725</v>
       </c>
       <c r="P6" t="n">
-        <v>27223.4940635501</v>
+        <v>12570.14156178725</v>
       </c>
     </row>
   </sheetData>
